--- a/Normalización-part1.xlsx
+++ b/Normalización-part1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSamu\OneDrive\Documentos\BD - SQL\BD-SQL_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C79B75D-D457-4920-B514-00AF26B86333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97967A2B-873A-4701-A586-B2B077BF6618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6362ABD5-D550-47A1-8806-3224D342D6E5}"/>
   </bookViews>
@@ -35,9 +35,101 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio </t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Juan Perez</t>
+  </si>
+  <si>
+    <t>Pedro Gomez</t>
+  </si>
+  <si>
+    <t>Ana Silva</t>
+  </si>
+  <si>
+    <t>juan.perez@</t>
+  </si>
+  <si>
+    <t>pedro.gomez@</t>
+  </si>
+  <si>
+    <t>ana.silva@</t>
+  </si>
+  <si>
+    <t>Calle 1 No.5</t>
+  </si>
+  <si>
+    <t>Calle 2 No.6</t>
+  </si>
+  <si>
+    <t>Calle 3 No.7</t>
+  </si>
+  <si>
+    <t>Calle 5 No.8</t>
+  </si>
+  <si>
+    <t>Calle 4 No.9</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>APURIMAC</t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>PC GAMER</t>
+  </si>
+  <si>
+    <t>Micrófono</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +137,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,13 +182,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,14 +538,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8718452F-2995-4915-9880-12B25326597B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45292</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
+        <v>918999043</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45293</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>847776875</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="5">
+        <v>6000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45294</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>982761756</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="5">
+        <v>700</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45295</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>938746162</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45296</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
+        <v>972647263</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="5">
+        <v>700</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{75FEB6F6-E738-4E6F-AE74-08D8E3F95A42}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{ECBC6588-E92B-447C-A619-7A439D62A949}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{C8396525-7170-438C-9CDB-C680EC249E5B}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{F902569D-2058-4A5C-AE26-D8F494A1C04A}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{6D6F393E-D0A8-46B2-BDD9-B43F36CCF6C8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Normalización-part1.xlsx
+++ b/Normalización-part1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSamu\OneDrive\Documentos\BD - SQL\BD-SQL_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97967A2B-873A-4701-A586-B2B077BF6618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31F76C0-B7EC-43C7-91F7-33ED9CD5285A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6362ABD5-D550-47A1-8806-3224D342D6E5}"/>
+    <workbookView xWindow="1350" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{6362ABD5-D550-47A1-8806-3224D342D6E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Modelo Desnormalizado" sheetId="1" r:id="rId1"/>
+    <sheet name="1FN" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>Venta</t>
   </si>
@@ -120,6 +121,72 @@
   </si>
   <si>
     <t>Micrófono</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gomez</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Silva</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Perez</t>
+  </si>
+  <si>
+    <t>58-1</t>
+  </si>
+  <si>
+    <t>85-6</t>
+  </si>
+  <si>
+    <t>33-3</t>
+  </si>
+  <si>
+    <t>45-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 1 </t>
+  </si>
+  <si>
+    <t>Calle 2</t>
+  </si>
+  <si>
+    <t>Calle 3</t>
+  </si>
+  <si>
+    <t>Calle 4</t>
+  </si>
+  <si>
+    <t>Calle 5</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>juan.perez@gmail.com</t>
+  </si>
+  <si>
+    <t>pedro.gomez@gmail.com</t>
+  </si>
+  <si>
+    <t>ana.silva@gmail.com</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>CP</t>
   </si>
 </sst>
 </file>
@@ -127,9 +194,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +221,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,7 +275,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,10 +616,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8718452F-2995-4915-9880-12B25326597B}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,4 +853,294 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2707EE7A-94FC-44C5-B783-D2A3BBBC8246}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45292</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2">
+        <v>918999043</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3100</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="N2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45293</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2">
+        <v>847776875</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4100</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="5">
+        <v>6000</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45294</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2">
+        <v>982761756</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6400</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="5">
+        <v>700</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45295</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2">
+        <v>938746162</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6400</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45296</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2">
+        <v>972647263</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3920</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="5">
+        <v>700</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{7D627749-3FFC-4AC3-BEF5-74AA59EF7739}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{1CA4E672-8C11-4C71-9B92-CE41693D7D80}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{FEADF71C-8A23-4BA7-ABB0-C4AD3D2C20C4}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{CC3B483B-CB98-4942-AFB6-5D2BF83B0568}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{1F2ED31E-BDBB-4071-8007-83B1A9408AD2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Normalización-part1.xlsx
+++ b/Normalización-part1.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSamu\OneDrive\Documentos\BD - SQL\BD-SQL_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31F76C0-B7EC-43C7-91F7-33ED9CD5285A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED0A28E-92DF-4844-B51B-D07C8B8DBDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{6362ABD5-D550-47A1-8806-3224D342D6E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{6362ABD5-D550-47A1-8806-3224D342D6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo Desnormalizado" sheetId="1" r:id="rId1"/>
     <sheet name="1FN" sheetId="3" r:id="rId2"/>
+    <sheet name="2FN" sheetId="4" r:id="rId3"/>
+    <sheet name="2FN-II" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="53">
   <si>
     <t>Venta</t>
   </si>
@@ -90,21 +92,6 @@
     <t>ana.silva@</t>
   </si>
   <si>
-    <t>Calle 1 No.5</t>
-  </si>
-  <si>
-    <t>Calle 2 No.6</t>
-  </si>
-  <si>
-    <t>Calle 3 No.7</t>
-  </si>
-  <si>
-    <t>Calle 5 No.8</t>
-  </si>
-  <si>
-    <t>Calle 4 No.9</t>
-  </si>
-  <si>
     <t>LIMA</t>
   </si>
   <si>
@@ -187,6 +174,30 @@
   </si>
   <si>
     <t>CP</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Calle</t>
+  </si>
+  <si>
+    <t>Calle 1 No.58-1</t>
+  </si>
+  <si>
+    <t>Calle 2 No.85-6</t>
+  </si>
+  <si>
+    <t>Calle 3 No.33-3</t>
+  </si>
+  <si>
+    <t>Calle 5 No.33-3</t>
+  </si>
+  <si>
+    <t>Calle 4 No.45-3</t>
+  </si>
+  <si>
+    <t>Cliente(FK)</t>
   </si>
 </sst>
 </file>
@@ -200,13 +211,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,6 +233,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,28 +271,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -622,228 +637,229 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>45292</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>918999043</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45293</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>847776875</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4">
+        <v>6000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45294</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>982761756</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="J4" s="4">
+        <v>700</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45295</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>938746162</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4">
         <v>3000</v>
       </c>
-      <c r="K2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>45293</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2">
-        <v>847776875</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>972647263</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5">
-        <v>6000</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>45294</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2">
-        <v>982761756</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="J6" s="4">
         <v>700</v>
       </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>45295</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2">
-        <v>938746162</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="5">
-        <v>3000</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45296</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
-        <v>972647263</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="5">
-        <v>700</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{75FEB6F6-E738-4E6F-AE74-08D8E3F95A42}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{ECBC6588-E92B-447C-A619-7A439D62A949}"/>
@@ -857,10 +873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2707EE7A-94FC-44C5-B783-D2A3BBBC8246}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,271 +885,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45292</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1">
+        <v>918999043</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3100</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45293</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1">
+        <v>847776875</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4100</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="4">
+        <v>6000</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45294</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1">
+        <v>982761756</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6400</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="4">
+        <v>700</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="B5" s="2">
+        <v>45295</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1">
+        <v>938746162</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6400</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45292</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2">
-        <v>918999043</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3100</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>972647263</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3920</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="5">
-        <v>3000</v>
-      </c>
-      <c r="N2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>45293</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2">
-        <v>847776875</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4100</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="5">
-        <v>6000</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>45294</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="2">
-        <v>982761756</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2">
-        <v>6400</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="M6" s="4">
         <v>700</v>
       </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>45295</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="2">
-        <v>938746162</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="2">
-        <v>6400</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="5">
-        <v>3000</v>
-      </c>
-      <c r="N5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45296</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="2">
-        <v>972647263</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3920</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="5">
-        <v>700</v>
-      </c>
-      <c r="N6" s="2">
-        <v>3</v>
-      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{7D627749-3FFC-4AC3-BEF5-74AA59EF7739}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{1CA4E672-8C11-4C71-9B92-CE41693D7D80}"/>
@@ -1143,4 +1162,677 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1B056-157A-483A-AEB5-C87EBFE28F7C}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45292</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1">
+        <v>918999043</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3100</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45293</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="1">
+        <v>847776875</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="1">
+        <v>4100</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45294</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4">
+        <v>700</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1">
+        <v>982761756</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="1">
+        <v>6400</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45295</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="1">
+        <v>938746162</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6400</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4">
+        <v>700</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="1">
+        <v>972647263</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3920</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{0B8FEBD3-5FEF-437A-BFFF-18F7E773928A}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{E49891C9-9DBA-4573-8150-A0109DDC1147}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{F4833375-B7B0-4819-B431-5AAF2CCA7821}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{68783CD0-1BBF-47B8-8511-FD066A0A8499}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{C9E296E4-664B-45D1-A28F-EC4C11AE6C78}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F252ED24-5F91-4414-B5C2-2A594212F0A3}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45292</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1">
+        <v>918999043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45293</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="1">
+        <v>847776875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45294</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4">
+        <v>700</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="1">
+        <v>982761756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45295</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4">
+        <v>700</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="8">
+        <v>3100</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I9" s="8">
+        <v>2</v>
+      </c>
+      <c r="J9" s="8">
+        <v>2</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="8">
+        <v>4100</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I10" s="8">
+        <v>3</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="8">
+        <v>6400</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I11" s="8">
+        <v>4</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="8">
+        <v>6400</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{8E1C8965-8E5C-4731-913F-D522CD52F1B5}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{A09031D4-AE86-4B40-867D-2BA7E0008C87}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{17646312-01A1-47A6-8B94-ABC43FEBBBFB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Normalización-part1.xlsx
+++ b/Normalización-part1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSamu\OneDrive\Documentos\BD - SQL\BD-SQL_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED0A28E-92DF-4844-B51B-D07C8B8DBDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB22293D-B78A-4F67-8987-D596A004DCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{6362ABD5-D550-47A1-8806-3224D342D6E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{6362ABD5-D550-47A1-8806-3224D342D6E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo Desnormalizado" sheetId="1" r:id="rId1"/>
     <sheet name="1FN" sheetId="3" r:id="rId2"/>
     <sheet name="2FN" sheetId="4" r:id="rId3"/>
     <sheet name="2FN-II" sheetId="5" r:id="rId4"/>
+    <sheet name="3FN" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="53">
   <si>
     <t>Venta</t>
   </si>
@@ -207,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +246,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -273,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,8 +302,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -873,6 +887,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2707EE7A-94FC-44C5-B783-D2A3BBBC8246}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1166,6 +1183,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1B056-157A-483A-AEB5-C87EBFE28F7C}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -1493,10 +1513,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F252ED24-5F91-4414-B5C2-2A594212F0A3}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="A1:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1748,7 @@
       <c r="L7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="N7" s="7" t="s">
@@ -1736,94 +1759,94 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8">
         <v>3100</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I9" s="8">
-        <v>2</v>
-      </c>
-      <c r="J9" s="8">
-        <v>2</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
         <v>35</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9">
         <v>4100</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I10" s="8">
-        <v>3</v>
-      </c>
-      <c r="J10" s="8">
-        <v>3</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10">
         <v>6400</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I11" s="8">
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11">
         <v>6400</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1835,4 +1858,371 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49C3CFE-B8D3-44CB-B49B-01D21A3065FE}">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45292</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1">
+        <v>918999043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45293</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4">
+        <v>6000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="1">
+        <v>847776875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45294</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4">
+        <v>700</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="1">
+        <v>982761756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45295</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G7" s="10"/>
+      <c r="L7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8">
+        <v>3100</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9">
+        <v>4100</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <v>6400</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11">
+        <v>6400</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J13" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O4" r:id="rId1" xr:uid="{29D22130-DD2C-4062-B631-1CEDA211C6ED}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{769FAD3E-4297-486E-88F1-F41730E5EF16}"/>
+    <hyperlink ref="O2" r:id="rId3" xr:uid="{C0C86E1D-B07F-43A9-BE27-8E7ACD6D62BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>